--- a/excelFiles/testExcel.xlsx
+++ b/excelFiles/testExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jenkins\workspace\Jenkins Report Generator\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\jenkinsReport\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,11 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Job Name</t>
   </si>
   <si>
+    <t>Build Number</t>
+  </si>
+  <si>
+    <t>Build Date</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -35,28 +41,34 @@
     <t>Feature File Count</t>
   </si>
   <si>
-    <t>DAM Custom Execution</t>
-  </si>
-  <si>
-    <t>00:01:09.305</t>
-  </si>
-  <si>
-    <t>00:01:29.283</t>
-  </si>
-  <si>
-    <t>00:01:06.057</t>
+    <t>Total Scenarios</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Errors</t>
+  </si>
+  <si>
+    <t>Total Skipped</t>
+  </si>
+  <si>
+    <t>DAM Smoke Tests UAT</t>
+  </si>
+  <si>
+    <t>00:50:39.348</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
+    <t>00:45:57.982</t>
   </si>
   <si>
     <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>00:01:06.897</t>
-  </si>
-  <si>
-    <t>00:01:23.227</t>
-  </si>
-  <si>
-    <t>00:01:08.639</t>
   </si>
 </sst>
 </file>
@@ -412,22 +424,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="8.88671875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,68 +457,113 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>101</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excelFiles/testExcel.xlsx
+++ b/excelFiles/testExcel.xlsx
@@ -1,100 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\jenkinsReport\excelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>Job Name</t>
-  </si>
-  <si>
-    <t>Build Number</t>
-  </si>
-  <si>
-    <t>Build Date</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Overall Status</t>
-  </si>
-  <si>
-    <t>Feature File Count</t>
-  </si>
-  <si>
-    <t>Total Scenarios</t>
-  </si>
-  <si>
-    <t>Total Passed</t>
-  </si>
-  <si>
-    <t>Total Failed</t>
-  </si>
-  <si>
-    <t>Total Errors</t>
-  </si>
-  <si>
-    <t>Total Skipped</t>
-  </si>
-  <si>
-    <t>DAM Smoke Tests UAT</t>
-  </si>
-  <si>
-    <t>00:50:39.348</t>
-  </si>
-  <si>
-    <t>FAILURE</t>
-  </si>
-  <si>
-    <t>00:45:57.982</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,27 +56,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,146 +425,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="8.88671875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="2"/>
+    <col width="26" customWidth="1" style="2" min="1" max="3"/>
+    <col width="30.44140625" customWidth="1" style="2" min="4" max="4"/>
+    <col width="19.109375" customWidth="1" style="2" min="5" max="5"/>
+    <col width="21.6640625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="15.21875" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
+    <col width="11.88671875" bestFit="1" customWidth="1" style="2" min="9" max="10"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
+    <col width="8.88671875" customWidth="1" style="2" min="12" max="17"/>
+    <col width="8.88671875" customWidth="1" style="2" min="18" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" ht="15.6" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Job Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Build Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Build Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Feature File Count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total Scenarios</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Passed</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Failed</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Total Errors</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total Skipped</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DAM Smoke Tests UAT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00:50:39.348</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FAILURE</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2" t="n">
+        <v>101</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DAM Smoke Tests UAT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:50:39.348</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FAILURE</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>79</v>
+      </c>
+      <c r="G3" t="n">
+        <v>101</v>
+      </c>
+      <c r="H3" t="n">
+        <v>90</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DAM Smoke Tests UAT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00:45:57.982</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>79</v>
+      </c>
+      <c r="G4" t="n">
+        <v>101</v>
+      </c>
+      <c r="H4" t="n">
+        <v>101</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DAM Smoke Tests UAT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00:45:57.982</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>79</v>
+      </c>
+      <c r="G5" t="n">
+        <v>101</v>
+      </c>
+      <c r="H5" t="n">
+        <v>101</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DAM Smoke Tests UAT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00:45:57.982</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>79</v>
+      </c>
+      <c r="G6" t="n">
+        <v>101</v>
+      </c>
+      <c r="H6" t="n">
+        <v>101</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DAM Smoke Tests UAT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>00:50:39.348</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAILURE</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>79</v>
+      </c>
+      <c r="G7" t="n">
+        <v>101</v>
+      </c>
+      <c r="H7" t="n">
+        <v>90</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DAM Smoke Tests UAT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01:05:17.790</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FAILURE</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>71</v>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>79</v>
-      </c>
-      <c r="G2">
-        <v>101</v>
-      </c>
-      <c r="H2">
-        <v>90</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>101</v>
-      </c>
-      <c r="H3">
-        <v>90</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>101</v>
-      </c>
-      <c r="H4">
-        <v>101</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="I8" t="n">
+        <v>65</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -573,24 +759,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
